--- a/Training/LSTM_LTC_result3.xlsx
+++ b/Training/LSTM_LTC_result3.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>4.087289285952892</v>
+        <v>3.177101264076848</v>
       </c>
       <c r="F1" t="n">
-        <v>3.965871791169005</v>
+        <v>3.061568467470246</v>
       </c>
       <c r="G1" t="n">
-        <v>6.968228612706215</v>
+        <v>5.375540348468691</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>5.305614463719456</v>
+        <v>0.9952835124906726</v>
       </c>
       <c r="F2" t="n">
-        <v>5.211790908769508</v>
+        <v>0.7376077121420986</v>
       </c>
       <c r="G2" t="n">
-        <v>9.100787255342897</v>
+        <v>1.186166399918893</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7622859616685271</v>
+        <v>0.9423409694762102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5245603235484775</v>
+        <v>0.6903621892108517</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8588111896866651</v>
+        <v>1.110190743843041</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>4.680054122998628</v>
+        <v>3.255698679724688</v>
       </c>
       <c r="F4" t="n">
-        <v>4.572906241410523</v>
+        <v>3.135671921622459</v>
       </c>
       <c r="G4" t="n">
-        <v>8.019202067996185</v>
+        <v>5.523587838212656</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>0.723248488312036</v>
+        <v>0.8294991268853523</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5021209890931759</v>
+        <v>0.601739947842367</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8194677957505905</v>
+        <v>0.9701919444002191</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7156945891948032</v>
+        <v>0.8252025334909258</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4943314270840365</v>
+        <v>0.5947499244646182</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8078023123676223</v>
+        <v>0.956863083170424</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>2.49497652065658</v>
+        <v>2.636460842891363</v>
       </c>
       <c r="F7" t="n">
-        <v>2.424141570429296</v>
+        <v>2.527245547963832</v>
       </c>
       <c r="G7" t="n">
-        <v>4.205674276724893</v>
+        <v>4.448996992788148</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>2.545616285022138</v>
+        <v>0.7405326955429583</v>
       </c>
       <c r="F8" t="n">
-        <v>2.474409106075937</v>
+        <v>0.5377779271142208</v>
       </c>
       <c r="G8" t="n">
-        <v>4.301508768423469</v>
+        <v>0.8771113265649666</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6541848146464226</v>
+        <v>0.7400694494555961</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4594335122232128</v>
+        <v>0.53357232514303</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7763978423560141</v>
+        <v>0.8685272176849171</v>
       </c>
     </row>
   </sheetData>
